--- a/Assignment/unused/Copy of Google finance.xlsx
+++ b/Assignment/unused/Copy of Google finance.xlsx
@@ -274,26 +274,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance(""NZE:MEL"")"),5.89)</f>
-        <v>5.89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance(""NZE:MEL"")"),5.58)</f>
+        <v>5.58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance(""MSFT"")"),235.15)</f>
-        <v>235.15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance(""MSFT"")"),242.35)</f>
+        <v>242.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance(""FB"")"),264.42)</f>
-        <v>264.42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance(""FB"")"),298.66)</f>
+        <v>298.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance("".DJI"")"),31522.24)</f>
-        <v>31522.24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("googlefinance("".DJI"")"),33153.21)</f>
+        <v>33153.21</v>
       </c>
     </row>
     <row r="6">
@@ -624,522 +624,548 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44228.66666666667)</f>
-        <v>44228.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44259.66666666667)</f>
+        <v>44259.66667</v>
       </c>
       <c r="B38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.52)</f>
-        <v>259.52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.47)</f>
+        <v>256.47</v>
       </c>
       <c r="C38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.17)</f>
-        <v>264.17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.49)</f>
+        <v>266.49</v>
       </c>
       <c r="D38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.91)</f>
-        <v>254.91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.5)</f>
+        <v>253.5</v>
       </c>
       <c r="E38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.01)</f>
-        <v>262.01</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.64)</f>
+        <v>257.64</v>
       </c>
       <c r="F38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.2914255E7)</f>
-        <v>22914255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.1626463E7)</f>
+        <v>31626463</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44229.66666666667)</f>
-        <v>44229.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44260.66666666667)</f>
+        <v>44260.66667</v>
       </c>
       <c r="B39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
-        <v>264</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.67)</f>
+        <v>260.67</v>
       </c>
       <c r="C39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.85)</f>
-        <v>268.85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.45)</f>
+        <v>265.45</v>
       </c>
       <c r="D39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.27)</f>
-        <v>263.27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.61)</f>
+        <v>255.61</v>
       </c>
       <c r="E39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.08)</f>
-        <v>267.08</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.28)</f>
+        <v>264.28</v>
       </c>
       <c r="F39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.7320788E7)</f>
-        <v>17320788</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.6820055E7)</f>
+        <v>26820055</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44230.66666666667)</f>
-        <v>44230.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44263.66666666667)</f>
+        <v>44263.66667</v>
       </c>
       <c r="B40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.62)</f>
-        <v>265.62</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.55)</f>
+        <v>265.55</v>
       </c>
       <c r="C40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.2)</f>
-        <v>269.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.58)</f>
+        <v>265.58</v>
       </c>
       <c r="D40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.84)</f>
-        <v>263.84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.05)</f>
+        <v>255.05</v>
       </c>
       <c r="E40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.65)</f>
-        <v>266.65</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.31)</f>
+        <v>255.31</v>
       </c>
       <c r="F40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4223377E7)</f>
-        <v>14223377</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.8391768E7)</f>
+        <v>18391768</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44231.66666666667)</f>
-        <v>44231.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44264.66666666667)</f>
+        <v>44264.66667</v>
       </c>
       <c r="B41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.01)</f>
-        <v>267.01</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.18)</f>
+        <v>261.18</v>
       </c>
       <c r="C41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.16)</f>
-        <v>268.16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.53)</f>
+        <v>268.53</v>
       </c>
       <c r="D41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
-        <v>264</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.81)</f>
+        <v>259.81</v>
       </c>
       <c r="E41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.49)</f>
-        <v>266.49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.74)</f>
+        <v>265.74</v>
       </c>
       <c r="F41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.6059958E7)</f>
-        <v>16059958</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.203974E7)</f>
+        <v>22039740</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44232.66666666667)</f>
-        <v>44232.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44265.66666666667)</f>
+        <v>44265.66667</v>
       </c>
       <c r="B42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.8)</f>
-        <v>266.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.64)</f>
+        <v>268.64</v>
       </c>
       <c r="C42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.17)</f>
-        <v>269.17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.97)</f>
+        <v>268.97</v>
       </c>
       <c r="D42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.67)</f>
-        <v>265.67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.87)</f>
+        <v>262.87</v>
       </c>
       <c r="E42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.1)</f>
-        <v>268.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.9)</f>
+        <v>264.9</v>
       </c>
       <c r="F42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2454367E7)</f>
-        <v>12454367</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4210318E7)</f>
+        <v>14210318</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44235.66666666667)</f>
-        <v>44235.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44266.66666666667)</f>
+        <v>44266.66667</v>
       </c>
       <c r="B43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.75)</f>
-        <v>268.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.11)</f>
+        <v>268.11</v>
       </c>
       <c r="C43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.86)</f>
-        <v>269.86</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.9)</f>
+        <v>277.9</v>
       </c>
       <c r="D43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.82)</f>
+        <v>267.82</v>
       </c>
       <c r="E43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.58)</f>
-        <v>266.58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.88)</f>
+        <v>273.88</v>
       </c>
       <c r="F43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3755191E7)</f>
-        <v>13755191</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.1833979E7)</f>
+        <v>21833979</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44236.66666666667)</f>
-        <v>44236.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44267.66666666667)</f>
+        <v>44267.66667</v>
       </c>
       <c r="B44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.44)</f>
-        <v>266.44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.14)</f>
+        <v>269.14</v>
       </c>
       <c r="C44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.39)</f>
-        <v>273.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.74)</f>
+        <v>269.74</v>
       </c>
       <c r="D44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.75)</f>
-        <v>265.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.02)</f>
+        <v>264.02</v>
       </c>
       <c r="E44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.45)</f>
-        <v>269.45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.4)</f>
+        <v>268.4</v>
       </c>
       <c r="F44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4613375E7)</f>
-        <v>14613375</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0600198E7)</f>
+        <v>20600198</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44237.66666666667)</f>
-        <v>44237.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44270.66666666667)</f>
+        <v>44270.66667</v>
       </c>
       <c r="B45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.45)</f>
-        <v>272.45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.08)</f>
+        <v>269.08</v>
       </c>
       <c r="C45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.8)</f>
-        <v>273.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.96)</f>
+        <v>275.96</v>
       </c>
       <c r="D45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.72)</f>
-        <v>267.72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.5)</f>
+        <v>268.5</v>
       </c>
       <c r="E45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.87)</f>
-        <v>271.87</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.75)</f>
+        <v>273.75</v>
       </c>
       <c r="F45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4687152E7)</f>
-        <v>14687152</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.6856746E7)</f>
+        <v>16856746</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44238.66666666667)</f>
-        <v>44238.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44271.66666666667)</f>
+        <v>44271.66667</v>
       </c>
       <c r="B46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.89)</f>
-        <v>271.89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.08)</f>
+        <v>276.08</v>
       </c>
       <c r="C46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.58)</f>
-        <v>273.58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.14)</f>
+        <v>282.14</v>
       </c>
       <c r="D46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.49)</f>
-        <v>268.49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.8)</f>
+        <v>274.8</v>
       </c>
       <c r="E46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.39)</f>
-        <v>270.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.28)</f>
+        <v>279.28</v>
       </c>
       <c r="F46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2828572E7)</f>
-        <v>12828572</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.2437665E7)</f>
+        <v>22437665</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44239.66666666667)</f>
-        <v>44239.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44272.66666666667)</f>
+        <v>44272.66667</v>
       </c>
       <c r="B47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.52)</f>
-        <v>270.52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.71)</f>
+        <v>275.71</v>
       </c>
       <c r="C47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.18)</f>
-        <v>271.18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.23)</f>
+        <v>286.23</v>
       </c>
       <c r="D47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.34)</f>
-        <v>268.34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.41)</f>
+        <v>275.41</v>
       </c>
       <c r="E47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.5)</f>
-        <v>270.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.01)</f>
+        <v>284.01</v>
       </c>
       <c r="F47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9097597.0)</f>
-        <v>9097597</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.1315044E7)</f>
+        <v>21315044</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44243.66666666667)</f>
-        <v>44243.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44273.66666666667)</f>
+        <v>44273.66667</v>
       </c>
       <c r="B48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.8)</f>
-        <v>270.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.87)</f>
+        <v>279.87</v>
       </c>
       <c r="C48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.6)</f>
-        <v>276.6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.19)</f>
+        <v>285.19</v>
       </c>
       <c r="D48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.05)</f>
-        <v>270.05</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.28)</f>
+        <v>278.28</v>
       </c>
       <c r="E48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.97)</f>
-        <v>273.97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.62)</f>
+        <v>278.62</v>
       </c>
       <c r="F48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.5417243E7)</f>
-        <v>15417243</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.8754853E7)</f>
+        <v>18754853</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44244.66666666667)</f>
-        <v>44244.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44274.66666666667)</f>
+        <v>44274.66667</v>
       </c>
       <c r="B49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.24)</f>
-        <v>271.24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.22)</f>
+        <v>281.22</v>
       </c>
       <c r="C49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.97)</f>
-        <v>273.97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.8)</f>
+        <v>292.8</v>
       </c>
       <c r="D49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.58)</f>
-        <v>269.58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.2)</f>
+        <v>281.2</v>
       </c>
       <c r="E49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.57)</f>
-        <v>273.57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.11)</f>
+        <v>290.11</v>
       </c>
       <c r="F49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.276324E7)</f>
-        <v>12763240</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.8930536E7)</f>
+        <v>38930536</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44245.66666666667)</f>
-        <v>44245.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44277.66666666667)</f>
+        <v>44277.66667</v>
       </c>
       <c r="B50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.57)</f>
-        <v>269.57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.45)</f>
+        <v>290.45</v>
       </c>
       <c r="C50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.95)</f>
-        <v>271.95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.71)</f>
+        <v>299.71</v>
       </c>
       <c r="D50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.03)</f>
-        <v>266.03</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.75)</f>
+        <v>286.75</v>
       </c>
       <c r="E50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.39)</f>
-        <v>269.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.54)</f>
+        <v>293.54</v>
       </c>
       <c r="F50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.5249134E7)</f>
-        <v>15249134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.8273073E7)</f>
+        <v>28273073</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44246.66666666667)</f>
-        <v>44246.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44278.66666666667)</f>
+        <v>44278.66667</v>
       </c>
       <c r="B51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.86)</f>
-        <v>269.86</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.15)</f>
+        <v>293.15</v>
       </c>
       <c r="C51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.27)</f>
-        <v>270.27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
+        <v>298</v>
       </c>
       <c r="D51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.15)</f>
-        <v>260.15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.81)</f>
+        <v>289.81</v>
       </c>
       <c r="E51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.56)</f>
-        <v>261.56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.63)</f>
+        <v>290.63</v>
       </c>
       <c r="F51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.5622587E7)</f>
-        <v>25622587</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.3000929E7)</f>
+        <v>23000929</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44249.66666666667)</f>
-        <v>44249.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44279.66666666667)</f>
+        <v>44279.66667</v>
       </c>
       <c r="B52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.95)</f>
-        <v>257.95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.0)</f>
+        <v>291</v>
       </c>
       <c r="C52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.07)</f>
-        <v>263.07</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.72)</f>
+        <v>291.72</v>
       </c>
       <c r="D52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.53)</f>
-        <v>257.53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.16)</f>
+        <v>281.16</v>
       </c>
       <c r="E52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.33)</f>
-        <v>260.33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.14)</f>
+        <v>282.14</v>
       </c>
       <c r="F52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.7434873E7)</f>
-        <v>17434873</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.8675046E7)</f>
+        <v>18675046</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44250.66666666667)</f>
-        <v>44250.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44280.66666666667)</f>
+        <v>44280.66667</v>
       </c>
       <c r="B53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.5)</f>
-        <v>259.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.98)</f>
+        <v>280.98</v>
       </c>
       <c r="C53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.46)</f>
-        <v>267.46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.06)</f>
+        <v>288.06</v>
       </c>
       <c r="D53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.96)</f>
-        <v>254.96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.75)</f>
+        <v>277.75</v>
       </c>
       <c r="E53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.86)</f>
-        <v>265.86</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.74)</f>
+        <v>278.74</v>
       </c>
       <c r="F53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.1924557E7)</f>
-        <v>21924557</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.4505648E7)</f>
+        <v>24505648</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44251.66666666667)</f>
-        <v>44251.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44281.66666666667)</f>
+        <v>44281.66667</v>
       </c>
       <c r="B54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.33)</f>
-        <v>262.33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.3)</f>
+        <v>278.3</v>
       </c>
       <c r="C54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.38)</f>
-        <v>266.38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.5)</f>
+        <v>284.5</v>
       </c>
       <c r="D54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.39)</f>
-        <v>258.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.77)</f>
+        <v>277.77</v>
       </c>
       <c r="E54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.31)</f>
-        <v>264.31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.02)</f>
+        <v>283.02</v>
       </c>
       <c r="F54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.5736123E7)</f>
-        <v>15736123</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.7629185E7)</f>
+        <v>17629185</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44252.66666666667)</f>
-        <v>44252.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44284.66666666667)</f>
+        <v>44284.66667</v>
       </c>
       <c r="B55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.3)</f>
-        <v>262.3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.77)</f>
+        <v>285.77</v>
       </c>
       <c r="C55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.94)</f>
-        <v>266.94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.18)</f>
+        <v>293.18</v>
       </c>
       <c r="D55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.04)</f>
-        <v>254.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.7)</f>
+        <v>284.7</v>
       </c>
       <c r="E55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.69)</f>
-        <v>254.69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.82)</f>
+        <v>290.82</v>
       </c>
       <c r="F55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.9053142E7)</f>
-        <v>19053142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.1718831E7)</f>
+        <v>21718831</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44253.66666666667)</f>
-        <v>44253.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44285.66666666667)</f>
+        <v>44285.66667</v>
       </c>
       <c r="B56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.47)</f>
-        <v>256.47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.83)</f>
+        <v>289.83</v>
       </c>
       <c r="C56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.55)</f>
-        <v>265.55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.47)</f>
+        <v>292.47</v>
       </c>
       <c r="D56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.47)</f>
-        <v>256.47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.7)</f>
+        <v>286.7</v>
       </c>
       <c r="E56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.62)</f>
-        <v>257.62</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
+        <v>288</v>
       </c>
       <c r="F56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.6619517E7)</f>
-        <v>26619517</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.7474537E7)</f>
+        <v>17474537</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44256.66666666667)</f>
-        <v>44256.66667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44286.66666666667)</f>
+        <v>44286.66667</v>
       </c>
       <c r="B57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.82)</f>
-        <v>260.82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.99)</f>
+        <v>289.99</v>
       </c>
       <c r="C57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.65)</f>
-        <v>266.65</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.5)</f>
+        <v>296.5</v>
       </c>
       <c r="D57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.9)</f>
-        <v>257.9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.61)</f>
+        <v>288.61</v>
       </c>
       <c r="E57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.91)</f>
-        <v>264.91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.53)</f>
+        <v>294.53</v>
       </c>
       <c r="F57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.2157255E7)</f>
-        <v>22157255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.9498157E7)</f>
+        <v>19498157</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44287.66666666667)</f>
+        <v>44287.66667</v>
+      </c>
+      <c r="B58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.4)</f>
+        <v>298.4</v>
+      </c>
+      <c r="C58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.4)</f>
+        <v>302.4</v>
+      </c>
+      <c r="D58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.6)</f>
+        <v>296.6</v>
+      </c>
+      <c r="E58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.66)</f>
+        <v>298.66</v>
+      </c>
+      <c r="F58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.761598E7)</f>
+        <v>17615980</v>
       </c>
     </row>
     <row r="61">
